--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB5E1D-C7FE-4518-ACF3-0C7E9C56D9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D31A5-3544-41F6-ADC6-02C7C42DBD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6660" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
+    <workbookView xWindow="-6540" yWindow="-21600" windowWidth="25800" windowHeight="21000" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="160">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="3">
@@ -94,31 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>InputInitFilePath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>InputExcelFilePath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力機種情報ファイルパス</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>キシュジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力Excelファイルパス</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -165,9 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ClassModelData</t>
-  </si>
-  <si>
     <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Models\ModelData.cs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -199,10 +171,6 @@
     <t>UnitDataList</t>
   </si>
   <si>
-    <t>ClassModelDetailsInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FirstHitProb</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -227,13 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ctime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初当り確率</t>
-  </si>
-  <si>
     <t>確変当り確率</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -286,19 +247,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付情報</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>履歴データリスト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>デイリーデータクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -368,15 +321,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HitStatus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回転数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -724,12 +669,357 @@
     <t>ReadModelDetailsInfo</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入力Excelファイルパス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ホールデータファイルパス</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>internal</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入力機種情報ファイルパス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>機種スペックデータファイルパス</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キシュジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">InputInitFilePath
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ModelSpecDataFilePath</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">InputExcelFilePath
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HallDataFilePath</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ClassModelDetailsInfo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassModelSpecData</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">日付情報
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日付</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステータス</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大当り種別</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>オオアタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HitType</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClassModelData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初当り確率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DateTime</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +1039,40 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -826,7 +1150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,8 +1166,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -1199,647 +1541,647 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="B30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1867,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1878,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -1895,22 +2237,22 @@
     </row>
     <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
@@ -1918,22 +2260,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1941,22 +2283,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -1964,22 +2306,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1987,22 +2329,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -2010,22 +2352,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -2033,22 +2375,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -2056,22 +2398,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
@@ -2079,22 +2421,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
@@ -2102,22 +2444,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -2125,22 +2467,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -2148,22 +2490,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -2171,22 +2513,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -2194,22 +2536,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
@@ -2240,7 +2582,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2251,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -2268,22 +2610,22 @@
     </row>
     <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
@@ -2291,22 +2633,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -2314,22 +2656,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -2337,22 +2679,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -2360,22 +2702,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -2383,22 +2725,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -2406,22 +2748,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -2429,22 +2771,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
@@ -2452,22 +2794,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
@@ -2475,22 +2817,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -2498,22 +2840,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -2521,22 +2863,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -2544,22 +2886,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -2567,185 +2909,185 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>67</v>
+        <v>144</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D31A5-3544-41F6-ADC6-02C7C42DBD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E4EE3-968E-4E8E-973E-E92457300D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6540" yWindow="-21600" windowWidth="25800" windowHeight="21000" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
+    <workbookView xWindow="-6660" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="162">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="3">
@@ -370,10 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ModelDetailsInfoList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DataGridViewUnitDataGrouper</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,43 +394,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Excelデータ読み込みボタンクリックイベント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ButtonReadExcel_Click</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックス(読み込みExcelデータファイル)テキスト変更イベント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TextBoxReadExcelPath_TextChanged</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンボボックス選択アイテム変更イベント</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ComboBoxModelName_SelectionChangeCommitted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DataGridViewグループ開くボタンクリックイベント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ButtonOpenGroup_Click</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DataGridViewグループ閉じるボタンクリックイベント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ButtonCloseGroup_Click</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1012,6 +976,331 @@
       </rPr>
       <t>DateTime</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Excelデータ読み込みボタンクリックイベント
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ホールデータ読込みボタンクリックイベント</t>
+    </r>
+    <rPh sb="30" eb="32">
+      <t>ヨミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ButtonReadExcel_Click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ButtonInportHallData_Click</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テキストボックス(読み込みExcelデータファイル)テキスト変更イベント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テキストボックス(ホールデータファイル)テキスト変更イベント</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TextBoxReadExcelPath_TextChanged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TextBoxHallDataFilePath_TextChanged</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ModelDetailsInfoList
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ModelSpecDataList</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ButtonOpenGroup_Click
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ButtonOpenUnitDataGroup_Click</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ButtonCloseGroup_Click
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ButtonCloseUnitDataGroup_Click</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>internal</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DataGridViewグループ開くボタンクリックイベント
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台データグループ開くボタンクリックイベント</t>
+    </r>
+    <rPh sb="30" eb="31">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DataGridViewグループ閉じるボタンクリックイベント
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台データグループ閉じるボタンクリックイベント</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>ダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1150,7 +1439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,25 +1455,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,647 +1824,647 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2235,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -2245,8 +2528,8 @@
       <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
+      <c r="D4" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
@@ -2258,7 +2541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -2268,8 +2551,8 @@
       <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
+      <c r="D5" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>53</v>
@@ -2281,18 +2564,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
+      <c r="C6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>57</v>
@@ -2304,7 +2587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>71</v>
       </c>
@@ -2312,10 +2595,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -2332,16 +2615,16 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -2352,20 +2635,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2373,22 +2656,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>81</v>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2396,21 +2679,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>83</v>
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -2421,20 +2704,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2442,22 +2725,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>87</v>
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2465,21 +2748,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -2490,19 +2773,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -2513,19 +2796,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -2536,19 +2819,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -2582,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2610,22 +2893,22 @@
     </row>
     <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
@@ -2633,10 +2916,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -2656,22 +2939,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -2679,10 +2962,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -2702,10 +2985,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2714,7 +2997,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -2725,16 +3008,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>57</v>
@@ -2748,16 +3031,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>56</v>
@@ -2771,22 +3054,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
@@ -2794,10 +3077,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -2817,10 +3100,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -2829,7 +3112,7 @@
         <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -2840,10 +3123,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -2863,16 +3146,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>57</v>
@@ -2886,19 +3169,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -2909,10 +3192,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -2921,7 +3204,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -2932,22 +3215,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>6</v>
@@ -2955,10 +3238,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -2967,7 +3250,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -2978,10 +3261,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -2993,7 +3276,7 @@
         <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
@@ -3001,10 +3284,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -3024,16 +3307,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -3047,22 +3330,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>6</v>
@@ -3070,10 +3353,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>

--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E4EE3-968E-4E8E-973E-E92457300D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C08269-249E-4A6C-A5E8-AFA819744E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6660" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
+    <workbookView xWindow="-6540" yWindow="-21600" windowWidth="25800" windowHeight="21000" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="161">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="3">
@@ -285,10 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>public</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,10 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DataGridViewGrouper</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DataGridViewGrouper(台データ)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,74 +447,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ConvertNumToRange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Excelのセル番号を範囲表記へ変換</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示用デイリーデータクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClassDispDailyData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\GlaphMapping\DispDailyData.cs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象デイリーデータクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClassTargetDailyData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デイリー履歴データをグラフへ表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DisplayDailyDataOnChart</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象デイリーデータを取得</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GetTargetDailyData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前日の残り回転数を取得</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GetBeforeRemainRotateCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示用ホールデータクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ClassDispUnitData</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>台データクラス (DataGridView表示用)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClassDispHallData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DispHallData.cs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -531,22 +471,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DisplayModelDataInComboBox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>台データをDataGridViewへ表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DisplayUnitDataInDataGridView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CalcDisplayUnitData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DataGridViewへ表示する台データの計算</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -555,10 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DataGridViewUnitDataGrouper_DisplayGroup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DataGridViewの表示設定</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -567,70 +491,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ClassDispModelDetailsInfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示用機種スペックデータクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DispModelDetailsInfo.cs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DispModelDetailsInfoOnTextBox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスへ機種スペック情報を表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClassReadExcel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読込みExcelデータクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ReadExcel.cs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ReadHallDataFromExcel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Excelからホールデータを読込み</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回転数と大当りステータスの取得</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GetRotateCountAndHitStatus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期設定ファイル読込みクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClassReadInitializeFile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ReadInitializeFile.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定ファイルから機種詳細情報を読込み</t>
-  </si>
-  <si>
-    <t>ReadModelDetailsInfo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1303,12 +1176,1043 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConvertNumToRange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConvCellNumToRange</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デイリー履歴データをグラフへ表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デイリーデータをグラフへ表示</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GetTargetDailyData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GetDispDailyData</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>対象デイリーデータを取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グラフへ表示させるデイリーデータを取得</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DisplayDailyDataOnChart
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DispDailyDataOnChart</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>対象デイリーデータクラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グラフ表示用デイリーデータクラス</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassTargetDailyData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassDispDailyData</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GetBeforeRemainRotateCount
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GetBeforeDayRemainRotateCount</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassDispDailyData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassDailyDataOnChart</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">表示用ホールデータクラス
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台データのDataGridViewクラス</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">表示用デイリーデータクラス
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デイリーデータのグラフクラス</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassDispHallData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ClassUnitDataOnDataGridView</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台データクラス (DataGridView表示用)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataGridView表示用台データクラス</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public
+private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DisplayModelDataInComboBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DispModelDataInComboBox</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DisplayUnitDataInDataGridView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DispUnitDataOnDataGridView</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CalcDisplayUnitData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CalcDispUnitData</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataGridViewUnitDataGrouper_DisplayGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SetDataGridViewGrouperDisplaySetting</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">表示用機種スペックデータクラス
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>機種スペックデータのテキストボックスクラス</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassDispModelDetailsInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassModelSpecDataOnTextBox</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスへ機種スペックデータを表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DispModelDetailsInfoOnTextBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DispModelSpecDataOnTextBox</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReadHallDataFromExcel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InportHallDataFromExcel</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GetRotateCountAndHitStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GetRotateCountAndHitType</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回転数と大当りステータスの取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回転数と大当り種別の取得</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>読込みExcelデータクラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ホールデータファイル読込みクラス</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassReadExcel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassInportHallDataFile</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassReadInitializeFile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassInportModelSpecDataFile</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初期設定ファイル読込みクラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>機種スペックデータファイル読込みクラス</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReadModelDetailsInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InportModelSpecDataFromTextFile</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>設定ファイルから機種詳細情報を読込み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テキストファイルから機種スペックデータを読込み</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,6 +2266,14 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1439,7 +2351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,6 +2380,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1835,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
@@ -1849,19 +2779,19 @@
     </row>
     <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -1872,19 +2802,19 @@
     </row>
     <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -1904,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -1927,10 +2857,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -1950,10 +2880,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -1967,13 +2897,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>53</v>
@@ -1996,10 +2926,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -2019,10 +2949,10 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -2042,10 +2972,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -2059,13 +2989,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>53</v>
@@ -2088,10 +3018,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -2102,7 +3032,7 @@
     </row>
     <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -2111,10 +3041,10 @@
         <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -2134,10 +3064,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -2157,10 +3087,10 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -2180,10 +3110,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -2203,10 +3133,10 @@
         <v>31</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -2226,10 +3156,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -2246,13 +3176,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -2272,7 +3202,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
@@ -2295,10 +3225,10 @@
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -2318,10 +3248,10 @@
         <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -2341,7 +3271,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
@@ -2355,19 +3285,19 @@
     </row>
     <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -2387,10 +3317,10 @@
         <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -2401,22 +3331,22 @@
     </row>
     <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>6</v>
@@ -2424,19 +3354,19 @@
     </row>
     <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -2447,19 +3377,19 @@
     </row>
     <row r="31" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -2492,7 +3422,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2520,22 +3450,22 @@
     </row>
     <row r="4" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
@@ -2543,16 +3473,16 @@
     </row>
     <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>53</v>
@@ -2572,13 +3502,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -2589,16 +3519,16 @@
     </row>
     <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -2612,19 +3542,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -2635,19 +3565,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -2658,19 +3588,19 @@
     </row>
     <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -2681,19 +3611,19 @@
     </row>
     <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -2704,19 +3634,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -2727,19 +3657,19 @@
     </row>
     <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -2750,19 +3680,19 @@
     </row>
     <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -2773,19 +3703,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -2796,19 +3726,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -2819,19 +3749,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -2865,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2891,486 +3821,486 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" s="11" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B5" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B17" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="F18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="G20" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B21" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="G23" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C08269-249E-4A6C-A5E8-AFA819744E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD45BA0C-419A-4DE3-9AEC-F1F1D06C59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6540" yWindow="-21600" windowWidth="25800" windowHeight="21000" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
+    <workbookView xWindow="-6660" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="162">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="3">
@@ -451,10 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\GlaphMapping\DispDailyData.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前日の残り回転数を取得</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -463,10 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DispHallData.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機種データをコンボボックスへ表示</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -491,19 +483,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DispModelDetailsInfo.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ReadExcel.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Excelからホールデータを読込み</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ReadInitializeFile.cs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2204,6 +2184,223 @@
         <scheme val="minor"/>
       </rPr>
       <t>テキストファイルから機種スペックデータを読込み</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\GlaphMapping\DispDailyData.cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DailyDataOnChart.cs</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DispHallData.cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ModelDataOnComboBox.cs</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DispHallData.cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\UnitDataOnDataGridView.cs</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\DispModelDetailsInfo.cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ModelSpecDataOnTextBox.cs</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ReadExcel.cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\InportHallDataFile.cs</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\ReadInitializeFile.cs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\Controller\Inport\InportModelSpecDataFile.cs</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2351,7 +2548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2380,24 +2577,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2765,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
@@ -2779,16 +2958,16 @@
     </row>
     <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
@@ -2802,16 +2981,16 @@
     </row>
     <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>54</v>
@@ -2834,7 +3013,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -2857,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>54</v>
@@ -2880,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>54</v>
@@ -2897,13 +3076,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>53</v>
@@ -2926,7 +3105,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>54</v>
@@ -2949,7 +3128,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
@@ -2972,7 +3151,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>56</v>
@@ -2989,13 +3168,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>53</v>
@@ -3018,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>54</v>
@@ -3032,7 +3211,7 @@
     </row>
     <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -3041,10 +3220,10 @@
         <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -3064,10 +3243,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -3087,10 +3266,10 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -3110,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -3133,7 +3312,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>55</v>
@@ -3156,7 +3335,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -3176,10 +3355,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -3202,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
@@ -3225,7 +3404,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>54</v>
@@ -3248,7 +3427,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>56</v>
@@ -3271,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
@@ -3285,16 +3464,16 @@
     </row>
     <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>57</v>
@@ -3317,7 +3496,7 @@
         <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>56</v>
@@ -3340,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>53</v>
@@ -3363,7 +3542,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>55</v>
@@ -3377,16 +3556,16 @@
     </row>
     <row r="31" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>55</v>
@@ -3459,7 +3638,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
@@ -3482,7 +3661,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>53</v>
@@ -3502,10 +3681,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
@@ -3528,7 +3707,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -3588,10 +3767,10 @@
     </row>
     <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -3611,10 +3790,10 @@
     </row>
     <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -3657,10 +3836,10 @@
     </row>
     <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -3680,10 +3859,10 @@
     </row>
     <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -3821,486 +4000,486 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="11" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="B7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="B8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="F20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="F23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_関数リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD45BA0C-419A-4DE3-9AEC-F1F1D06C59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F0AD8-0737-4121-A405-5FF767F27E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6660" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{2CDE096F-E322-4462-AB95-F292BD758652}"/>
   </bookViews>
